--- a/PTBR/Lang/PTBR/Data/Alias.xlsx
+++ b/PTBR/Lang/PTBR/Data/Alias.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Elinyad\Elinyad\Assets\StreamingAssets\Package\_Elona\Lang\EN\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DE5705-0BBB-4181-992D-18DBF53AFE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21930" windowHeight="11130"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alias_EN" sheetId="3" r:id="rId1"/>
@@ -3549,8 +3550,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3590,9 +3591,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3872,22 +3873,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C334" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C236" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E341" sqref="E341"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:B120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3951,7 +3952,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3968,7 +3969,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -4034,7 +4035,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -4090,7 +4091,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -4101,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -4124,7 +4125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -4135,7 +4136,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -4174,7 +4175,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -4227,7 +4228,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -4270,7 +4271,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -4292,7 +4293,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -4339,7 +4340,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -4356,7 +4357,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -4418,7 +4419,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -4432,7 +4433,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -4474,7 +4475,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -4488,7 +4489,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -4499,7 +4500,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="12.75">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -4536,7 +4537,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12.75">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -4550,7 +4551,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="12.75">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12.75">
       <c r="A41" s="1" t="s">
         <v>36</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="12.75">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -4599,7 +4600,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12.75">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
@@ -4613,7 +4614,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="12.75">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
@@ -4630,7 +4631,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="12.75">
       <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12.75">
       <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12.75">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12.75">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="12.75">
       <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="12.75">
       <c r="A50" s="1" t="s">
         <v>36</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="12.75">
       <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="12.75">
       <c r="A52" s="1" t="s">
         <v>36</v>
       </c>
@@ -4739,7 +4740,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="12.75">
       <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="12.75">
       <c r="A54" s="1" t="s">
         <v>36</v>
       </c>
@@ -4776,7 +4777,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="12.75">
       <c r="A55" s="1" t="s">
         <v>36</v>
       </c>
@@ -4793,7 +4794,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="12.75">
       <c r="A56" s="1" t="s">
         <v>36</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="12.75">
       <c r="A57" s="1" t="s">
         <v>36</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="12.75">
       <c r="A58" s="1" t="s">
         <v>36</v>
       </c>
@@ -4835,7 +4836,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="12.75">
       <c r="A59" s="1" t="s">
         <v>36</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="12.75">
       <c r="A60" s="1" t="s">
         <v>36</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="12.75">
       <c r="A61" s="1" t="s">
         <v>36</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="12.75">
       <c r="A62" s="1" t="s">
         <v>36</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="12.75">
       <c r="A63" s="1" t="s">
         <v>36</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="12.75">
       <c r="A64" s="1" t="s">
         <v>36</v>
       </c>
@@ -4910,7 +4911,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="12.75">
       <c r="A65" s="1" t="s">
         <v>36</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="12.75">
       <c r="A66" s="1" t="s">
         <v>36</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="12.75">
       <c r="A67" s="1" t="s">
         <v>36</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="12.75">
       <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="12.75">
       <c r="A69" s="1" t="s">
         <v>36</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="12.75">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -4988,7 +4989,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="12.75">
       <c r="A71" s="1" t="s">
         <v>36</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="12.75">
       <c r="A72" s="1" t="s">
         <v>36</v>
       </c>
@@ -5016,7 +5017,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="12.75">
       <c r="A73" s="1" t="s">
         <v>36</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="12.75">
       <c r="A74" s="1" t="s">
         <v>36</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="12.75">
       <c r="A75" s="1" t="s">
         <v>260</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="12.75">
       <c r="A76" s="1" t="s">
         <v>264</v>
       </c>
@@ -5078,7 +5079,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="12.75">
       <c r="A77" s="1" t="s">
         <v>264</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="12.75">
       <c r="A78" s="1" t="s">
         <v>264</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="12.75">
       <c r="A79" s="1" t="s">
         <v>264</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="12.75">
       <c r="A80" s="1" t="s">
         <v>264</v>
       </c>
@@ -5140,7 +5141,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="12.75">
       <c r="A81" s="1" t="s">
         <v>264</v>
       </c>
@@ -5154,7 +5155,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="12.75">
       <c r="A82" s="1" t="s">
         <v>264</v>
       </c>
@@ -5165,7 +5166,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="12.75">
       <c r="A83" s="1" t="s">
         <v>264</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="12.75">
       <c r="A84" s="1" t="s">
         <v>264</v>
       </c>
@@ -5196,7 +5197,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="12.75">
       <c r="A85" s="1" t="s">
         <v>264</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="12.75">
       <c r="A86" s="1" t="s">
         <v>264</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="12.75">
       <c r="A87" s="1" t="s">
         <v>264</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="12.75">
       <c r="A88" s="1" t="s">
         <v>264</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="12.75">
       <c r="A89" s="1" t="s">
         <v>264</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="12.75">
       <c r="A90" s="1" t="s">
         <v>264</v>
       </c>
@@ -5277,7 +5278,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="12.75">
       <c r="A91" s="1" t="s">
         <v>264</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="12.75">
       <c r="A92" s="1" t="s">
         <v>264</v>
       </c>
@@ -5305,7 +5306,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="12.75">
       <c r="A93" s="1" t="s">
         <v>264</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="12.75">
       <c r="A94" s="1" t="s">
         <v>264</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="12.75">
       <c r="A95" s="1" t="s">
         <v>264</v>
       </c>
@@ -5362,7 +5363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="12.75">
       <c r="A96" s="1" t="s">
         <v>264</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="12.75">
       <c r="A97" s="1" t="s">
         <v>264</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="12.75">
       <c r="A98" s="1" t="s">
         <v>264</v>
       </c>
@@ -5407,7 +5408,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="12.75">
       <c r="A99" s="1" t="s">
         <v>264</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="12.75">
       <c r="A100" s="1" t="s">
         <v>264</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="12.75">
       <c r="A101" s="1" t="s">
         <v>264</v>
       </c>
@@ -5449,7 +5450,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="12.75">
       <c r="A102" s="1" t="s">
         <v>264</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="12.75">
       <c r="A103" s="1" t="s">
         <v>264</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="12.75">
       <c r="A104" s="1" t="s">
         <v>264</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="12.75">
       <c r="A105" s="1" t="s">
         <v>264</v>
       </c>
@@ -5496,7 +5497,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="12.75">
       <c r="A106" s="1" t="s">
         <v>264</v>
       </c>
@@ -5507,7 +5508,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="12.75">
       <c r="A107" s="1" t="s">
         <v>264</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="12.75">
       <c r="A108" s="1" t="s">
         <v>264</v>
       </c>
@@ -5532,7 +5533,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="12.75">
       <c r="A109" s="1" t="s">
         <v>264</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="12.75">
       <c r="A110" s="1" t="s">
         <v>264</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="12.75">
       <c r="A111" s="1" t="s">
         <v>264</v>
       </c>
@@ -5577,7 +5578,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="12.75">
       <c r="A112" s="1" t="s">
         <v>264</v>
       </c>
@@ -5594,7 +5595,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="12.75">
       <c r="A113" s="1" t="s">
         <v>264</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="12.75">
       <c r="A114" s="1" t="s">
         <v>264</v>
       </c>
@@ -5619,7 +5620,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="12.75">
       <c r="A115" s="1" t="s">
         <v>264</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="12.75">
       <c r="A116" s="1" t="s">
         <v>264</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="12.75">
       <c r="A117" s="1" t="s">
         <v>264</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="12.75">
       <c r="A118" s="1" t="s">
         <v>264</v>
       </c>
@@ -5672,7 +5673,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="12.75">
       <c r="A119" s="1" t="s">
         <v>264</v>
       </c>
@@ -5686,7 +5687,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="12.75">
       <c r="A120" s="1" t="s">
         <v>264</v>
       </c>
@@ -5700,7 +5701,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="12.75">
       <c r="A121" s="1" t="s">
         <v>264</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="12.75">
       <c r="A122" s="1" t="s">
         <v>264</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="12.75">
       <c r="A123" s="1" t="s">
         <v>264</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="12.75">
       <c r="A124" s="1" t="s">
         <v>264</v>
       </c>
@@ -5750,7 +5751,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="12.75">
       <c r="A125" s="1" t="s">
         <v>264</v>
       </c>
@@ -5764,7 +5765,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="12.75">
       <c r="A126" s="1" t="s">
         <v>264</v>
       </c>
@@ -5775,7 +5776,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="12.75">
       <c r="A127" s="1" t="s">
         <v>264</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="12.75">
       <c r="A128" s="1" t="s">
         <v>264</v>
       </c>
@@ -5812,7 +5813,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="12.75">
       <c r="A129" s="1" t="s">
         <v>264</v>
       </c>
@@ -5829,7 +5830,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="12.75">
       <c r="A130" s="1" t="s">
         <v>264</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="12.75">
       <c r="A131" s="1" t="s">
         <v>264</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="12.75">
       <c r="A132" s="1" t="s">
         <v>264</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="12.75">
       <c r="A133" s="1" t="s">
         <v>264</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="12.75">
       <c r="A134" s="1" t="s">
         <v>264</v>
       </c>
@@ -5905,7 +5906,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="12.75">
       <c r="A135" s="1" t="s">
         <v>264</v>
       </c>
@@ -5916,7 +5917,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="12.75">
       <c r="A136" s="1" t="s">
         <v>264</v>
       </c>
@@ -5930,7 +5931,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="12.75">
       <c r="A137" s="1" t="s">
         <v>264</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="12.75">
       <c r="A138" s="1" t="s">
         <v>264</v>
       </c>
@@ -5973,7 +5974,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="12.75">
       <c r="A139" s="1" t="s">
         <v>264</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="12.75">
       <c r="A140" s="1" t="s">
         <v>264</v>
       </c>
@@ -5995,7 +5996,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="12.75">
       <c r="A141" s="1" t="s">
         <v>264</v>
       </c>
@@ -6006,7 +6007,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="12.75">
       <c r="A142" s="1" t="s">
         <v>264</v>
       </c>
@@ -6020,7 +6021,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="12.75">
       <c r="A143" s="1" t="s">
         <v>264</v>
       </c>
@@ -6031,7 +6032,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="12.75">
       <c r="A144" s="1" t="s">
         <v>264</v>
       </c>
@@ -6042,7 +6043,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="12.75">
       <c r="A145" s="1" t="s">
         <v>264</v>
       </c>
@@ -6050,7 +6051,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="12.75">
       <c r="A146" s="1" t="s">
         <v>264</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="12.75">
       <c r="A147" s="1" t="s">
         <v>264</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="12.75">
       <c r="A148" s="1" t="s">
         <v>264</v>
       </c>
@@ -6083,7 +6084,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="12.75">
       <c r="A149" s="1" t="s">
         <v>264</v>
       </c>
@@ -6091,7 +6092,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="12.75">
       <c r="A150" s="1" t="s">
         <v>264</v>
       </c>
@@ -6102,7 +6103,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="12.75">
       <c r="A151" s="1" t="s">
         <v>264</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="12.75">
       <c r="A152" s="1" t="s">
         <v>264</v>
       </c>
@@ -6130,7 +6131,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="12.75">
       <c r="A153" s="1" t="s">
         <v>264</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="12.75">
       <c r="A154" s="1" t="s">
         <v>264</v>
       </c>
@@ -6152,7 +6153,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="12.75">
       <c r="A155" s="1" t="s">
         <v>264</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="12.75">
       <c r="A156" s="1" t="s">
         <v>264</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="12.75">
       <c r="A157" s="1" t="s">
         <v>264</v>
       </c>
@@ -6185,7 +6186,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="12.75">
       <c r="A158" s="1" t="s">
         <v>264</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="12.75">
       <c r="A159" s="1" t="s">
         <v>264</v>
       </c>
@@ -6231,7 +6232,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="12.75">
       <c r="A160" s="1" t="s">
         <v>264</v>
       </c>
@@ -6242,7 +6243,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="12.75">
       <c r="A161" s="1" t="s">
         <v>264</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="12.75">
       <c r="A162" s="1" t="s">
         <v>264</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="12.75">
       <c r="A163" s="1" t="s">
         <v>264</v>
       </c>
@@ -6290,7 +6291,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="12.75">
       <c r="A164" s="1" t="s">
         <v>264</v>
       </c>
@@ -6304,7 +6305,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="12.75">
       <c r="A165" s="1" t="s">
         <v>264</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="12.75">
       <c r="A166" s="1" t="s">
         <v>264</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="12.75">
       <c r="A167" s="1" t="s">
         <v>264</v>
       </c>
@@ -6337,7 +6338,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="12.75">
       <c r="A168" s="1" t="s">
         <v>264</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="12.75">
       <c r="A169" s="1" t="s">
         <v>264</v>
       </c>
@@ -6362,7 +6363,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="12.75">
       <c r="A170" s="1" t="s">
         <v>264</v>
       </c>
@@ -6373,7 +6374,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="12.75">
       <c r="A171" s="1" t="s">
         <v>264</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="12.75">
       <c r="A172" s="1" t="s">
         <v>264</v>
       </c>
@@ -6395,7 +6396,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="12.75">
       <c r="A173" s="1" t="s">
         <v>264</v>
       </c>
@@ -6403,7 +6404,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="12.75">
       <c r="A174" s="1" t="s">
         <v>264</v>
       </c>
@@ -6414,7 +6415,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="12.75">
       <c r="A175" s="1" t="s">
         <v>264</v>
       </c>
@@ -6431,7 +6432,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="12.75">
       <c r="A176" s="1" t="s">
         <v>264</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" ht="12.75">
       <c r="A177" s="1" t="s">
         <v>264</v>
       </c>
@@ -6456,7 +6457,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" ht="12.75">
       <c r="A178" s="1" t="s">
         <v>264</v>
       </c>
@@ -6467,7 +6468,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" ht="12.75">
       <c r="A179" s="1" t="s">
         <v>264</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" ht="12.75">
       <c r="A180" s="1" t="s">
         <v>264</v>
       </c>
@@ -6492,7 +6493,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" ht="12.75">
       <c r="A181" s="1" t="s">
         <v>264</v>
       </c>
@@ -6503,7 +6504,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" ht="12.75">
       <c r="A182" s="1" t="s">
         <v>264</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" ht="12.75">
       <c r="A183" s="1" t="s">
         <v>264</v>
       </c>
@@ -6531,7 +6532,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" ht="12.75">
       <c r="A184" s="1" t="s">
         <v>264</v>
       </c>
@@ -6542,7 +6543,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" ht="12.75">
       <c r="A185" s="1" t="s">
         <v>264</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" ht="12.75">
       <c r="A186" s="1" t="s">
         <v>264</v>
       </c>
@@ -6564,7 +6565,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" ht="12.75">
       <c r="A187" s="1" t="s">
         <v>264</v>
       </c>
@@ -6575,7 +6576,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" ht="12.75">
       <c r="A188" s="1" t="s">
         <v>264</v>
       </c>
@@ -6586,7 +6587,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" ht="12.75">
       <c r="A189" s="1" t="s">
         <v>264</v>
       </c>
@@ -6597,7 +6598,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" ht="12.75">
       <c r="A190" s="1" t="s">
         <v>264</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" ht="12.75">
       <c r="A191" s="1" t="s">
         <v>264</v>
       </c>
@@ -6616,7 +6617,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" ht="12.75">
       <c r="A192" s="1" t="s">
         <v>264</v>
       </c>
@@ -6627,7 +6628,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="12.75">
       <c r="A193" s="1" t="s">
         <v>264</v>
       </c>
@@ -6638,7 +6639,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="12.75">
       <c r="A194" s="1" t="s">
         <v>264</v>
       </c>
@@ -6649,7 +6650,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="12.75">
       <c r="A195" s="1" t="s">
         <v>264</v>
       </c>
@@ -6663,7 +6664,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="12.75">
       <c r="A196" s="1" t="s">
         <v>264</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="12.75">
       <c r="A197" s="1" t="s">
         <v>264</v>
       </c>
@@ -6685,7 +6686,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="12.75">
       <c r="A198" s="1" t="s">
         <v>264</v>
       </c>
@@ -6696,7 +6697,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="12.75">
       <c r="A199" s="1" t="s">
         <v>264</v>
       </c>
@@ -6707,7 +6708,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" ht="12.75">
       <c r="A200" s="1" t="s">
         <v>264</v>
       </c>
@@ -6727,7 +6728,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" ht="12.75">
       <c r="A201" s="1" t="s">
         <v>264</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="12.75">
       <c r="A202" s="1" t="s">
         <v>264</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="12.75">
       <c r="A203" s="1" t="s">
         <v>264</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="12.75">
       <c r="A204" s="1" t="s">
         <v>264</v>
       </c>
@@ -6771,7 +6772,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="12.75">
       <c r="A205" s="1" t="s">
         <v>264</v>
       </c>
@@ -6788,7 +6789,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="12.75">
       <c r="A206" s="1" t="s">
         <v>264</v>
       </c>
@@ -6805,7 +6806,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="12.75">
       <c r="A207" s="1" t="s">
         <v>264</v>
       </c>
@@ -6828,7 +6829,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="12.75">
       <c r="A208" s="1" t="s">
         <v>264</v>
       </c>
@@ -6839,7 +6840,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" ht="12.75">
       <c r="A209" s="1" t="s">
         <v>264</v>
       </c>
@@ -6850,7 +6851,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="12.75">
       <c r="A210" s="1" t="s">
         <v>264</v>
       </c>
@@ -6861,7 +6862,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" ht="12.75">
       <c r="A211" s="1" t="s">
         <v>264</v>
       </c>
@@ -6872,7 +6873,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" ht="12.75">
       <c r="A212" s="1" t="s">
         <v>264</v>
       </c>
@@ -6900,7 +6901,7 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" ht="12.75">
       <c r="A213" s="1" t="s">
         <v>605</v>
       </c>
@@ -6908,7 +6909,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" ht="12.75">
       <c r="A214" s="1" t="s">
         <v>605</v>
       </c>
@@ -6922,7 +6923,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" ht="12.75">
       <c r="A215" s="1" t="s">
         <v>605</v>
       </c>
@@ -6933,7 +6934,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" ht="12.75">
       <c r="A216" s="1" t="s">
         <v>605</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" ht="12.75">
       <c r="A217" s="1" t="s">
         <v>605</v>
       </c>
@@ -6955,7 +6956,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" ht="12.75">
       <c r="A218" s="1" t="s">
         <v>615</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" ht="12.75">
       <c r="A219" s="1" t="s">
         <v>615</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" ht="12.75">
       <c r="A220" s="1" t="s">
         <v>615</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" ht="12.75">
       <c r="A221" s="1" t="s">
         <v>615</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" ht="12.75">
       <c r="A222" s="1" t="s">
         <v>615</v>
       </c>
@@ -7025,7 +7026,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" ht="12.75">
       <c r="A223" s="1" t="s">
         <v>615</v>
       </c>
@@ -7036,7 +7037,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" ht="12.75">
       <c r="A224" s="1" t="s">
         <v>615</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="12.75">
       <c r="A225" s="1" t="s">
         <v>615</v>
       </c>
@@ -7058,7 +7059,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" ht="12.75">
       <c r="A226" s="1" t="s">
         <v>615</v>
       </c>
@@ -7081,7 +7082,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" ht="12.75">
       <c r="A227" s="1" t="s">
         <v>615</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="12.75">
       <c r="A228" s="1" t="s">
         <v>643</v>
       </c>
@@ -7109,7 +7110,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" ht="12.75">
       <c r="A229" s="1" t="s">
         <v>643</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" ht="12.75">
       <c r="A230" s="1" t="s">
         <v>643</v>
       </c>
@@ -7141,7 +7142,7 @@
       </c>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="12.75">
       <c r="A231" s="1" t="s">
         <v>643</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="12.75">
       <c r="A232" s="1" t="s">
         <v>643</v>
       </c>
@@ -7169,7 +7170,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="12.75">
       <c r="A233" s="1" t="s">
         <v>643</v>
       </c>
@@ -7180,7 +7181,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="12.75">
       <c r="A234" s="1" t="s">
         <v>643</v>
       </c>
@@ -7194,7 +7195,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="12.75">
       <c r="A235" s="1" t="s">
         <v>643</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="12.75">
       <c r="A236" s="1" t="s">
         <v>643</v>
       </c>
@@ -7228,7 +7229,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" ht="12.75">
       <c r="A237" s="1" t="s">
         <v>643</v>
       </c>
@@ -7245,7 +7246,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="12.75">
       <c r="A238" s="1" t="s">
         <v>643</v>
       </c>
@@ -7259,7 +7260,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="12.75">
       <c r="A239" s="1" t="s">
         <v>643</v>
       </c>
@@ -7270,7 +7271,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="12.75">
       <c r="A240" s="1" t="s">
         <v>643</v>
       </c>
@@ -7287,7 +7288,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="12.75">
       <c r="A241" s="1" t="s">
         <v>643</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="12.75">
       <c r="A242" s="1" t="s">
         <v>643</v>
       </c>
@@ -7316,7 +7317,7 @@
       </c>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="12.75">
       <c r="A243" s="1" t="s">
         <v>643</v>
       </c>
@@ -7327,7 +7328,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="12.75">
       <c r="A244" s="1" t="s">
         <v>643</v>
       </c>
@@ -7341,7 +7342,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="12.75">
       <c r="A245" s="1" t="s">
         <v>643</v>
       </c>
@@ -7370,7 +7371,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="12.75">
       <c r="A246" s="1" t="s">
         <v>643</v>
       </c>
@@ -7390,7 +7391,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="12.75">
       <c r="A247" s="1" t="s">
         <v>703</v>
       </c>
@@ -7401,7 +7402,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="12.75">
       <c r="A248" s="1" t="s">
         <v>703</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="12.75">
       <c r="A249" s="1" t="s">
         <v>703</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="12.75">
       <c r="A250" s="1" t="s">
         <v>703</v>
       </c>
@@ -7431,7 +7432,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="12.75">
       <c r="A251" s="1" t="s">
         <v>703</v>
       </c>
@@ -7442,7 +7443,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="12.75">
       <c r="A252" s="1" t="s">
         <v>713</v>
       </c>
@@ -7459,7 +7460,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="12.75">
       <c r="A253" s="1" t="s">
         <v>713</v>
       </c>
@@ -7473,7 +7474,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="12.75">
       <c r="A254" s="1" t="s">
         <v>713</v>
       </c>
@@ -7487,7 +7488,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="12.75">
       <c r="A255" s="1" t="s">
         <v>713</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="12.75">
       <c r="A256" s="1" t="s">
         <v>713</v>
       </c>
@@ -7515,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="12.75">
       <c r="A257" s="1" t="s">
         <v>713</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="12.75">
       <c r="A258" s="1" t="s">
         <v>713</v>
       </c>
@@ -7540,7 +7541,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="12.75">
       <c r="A259" s="1" t="s">
         <v>713</v>
       </c>
@@ -7551,7 +7552,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="12.75">
       <c r="A260" s="1" t="s">
         <v>713</v>
       </c>
@@ -7563,7 +7564,7 @@
       </c>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="12.75">
       <c r="A261" s="1" t="s">
         <v>734</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="12.75">
       <c r="A262" s="1" t="s">
         <v>734</v>
       </c>
@@ -7585,7 +7586,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="12.75">
       <c r="A263" s="1" t="s">
         <v>734</v>
       </c>
@@ -7596,7 +7597,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="12.75">
       <c r="A264" s="1" t="s">
         <v>734</v>
       </c>
@@ -7613,7 +7614,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="12.75">
       <c r="A265" s="1" t="s">
         <v>734</v>
       </c>
@@ -7630,7 +7631,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="12.75">
       <c r="A266" s="1" t="s">
         <v>734</v>
       </c>
@@ -7653,7 +7654,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="12.75">
       <c r="A267" s="1" t="s">
         <v>734</v>
       </c>
@@ -7679,7 +7680,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="12.75">
       <c r="A268" s="1" t="s">
         <v>734</v>
       </c>
@@ -7690,7 +7691,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="12.75">
       <c r="A269" s="1" t="s">
         <v>734</v>
       </c>
@@ -7701,7 +7702,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="12.75">
       <c r="A270" s="1" t="s">
         <v>734</v>
       </c>
@@ -7712,7 +7713,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" ht="12.75">
       <c r="A271" s="1" t="s">
         <v>762</v>
       </c>
@@ -7738,7 +7739,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="12.75">
       <c r="A272" s="1" t="s">
         <v>762</v>
       </c>
@@ -7755,7 +7756,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" ht="12.75">
       <c r="A273" s="1" t="s">
         <v>762</v>
       </c>
@@ -7772,7 +7773,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="12.75">
       <c r="A274" s="1" t="s">
         <v>762</v>
       </c>
@@ -7786,7 +7787,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="12.75">
       <c r="A275" s="1" t="s">
         <v>762</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" ht="12.75">
       <c r="A276" s="1" t="s">
         <v>762</v>
       </c>
@@ -7835,7 +7836,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" ht="12.75">
       <c r="A277" s="1" t="s">
         <v>762</v>
       </c>
@@ -7864,7 +7865,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" ht="12.75">
       <c r="A278" s="1" t="s">
         <v>762</v>
       </c>
@@ -7884,7 +7885,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="12.75">
       <c r="A279" s="1" t="s">
         <v>762</v>
       </c>
@@ -7895,7 +7896,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="12.75">
       <c r="A280" s="1" t="s">
         <v>762</v>
       </c>
@@ -7915,7 +7916,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="12.75">
       <c r="A281" s="1" t="s">
         <v>762</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="12.75">
       <c r="A282" s="1" t="s">
         <v>762</v>
       </c>
@@ -7967,7 +7968,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="12.75">
       <c r="A283" s="1" t="s">
         <v>762</v>
       </c>
@@ -7990,7 +7991,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="12.75">
       <c r="A284" s="1" t="s">
         <v>762</v>
       </c>
@@ -8007,7 +8008,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="12.75">
       <c r="A285" s="1" t="s">
         <v>762</v>
       </c>
@@ -8021,7 +8022,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" ht="12.75">
       <c r="A286" s="1" t="s">
         <v>762</v>
       </c>
@@ -8038,7 +8039,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" ht="12.75">
       <c r="A287" s="1" t="s">
         <v>762</v>
       </c>
@@ -8052,7 +8053,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" ht="12.75">
       <c r="A288" s="1" t="s">
         <v>762</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" ht="12.75">
       <c r="A289" s="1" t="s">
         <v>762</v>
       </c>
@@ -8107,7 +8108,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" ht="12.75">
       <c r="A290" s="1" t="s">
         <v>762</v>
       </c>
@@ -8136,7 +8137,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" ht="12.75">
       <c r="A291" s="1" t="s">
         <v>762</v>
       </c>
@@ -8165,7 +8166,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" ht="12.75">
       <c r="A292" s="1" t="s">
         <v>762</v>
       </c>
@@ -8185,7 +8186,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" ht="12.75">
       <c r="A293" s="1" t="s">
         <v>762</v>
       </c>
@@ -8205,7 +8206,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" ht="12.75">
       <c r="A294" s="1" t="s">
         <v>762</v>
       </c>
@@ -8222,7 +8223,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" ht="12.75">
       <c r="A295" s="1" t="s">
         <v>762</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" ht="12.75">
       <c r="A296" s="1" t="s">
         <v>762</v>
       </c>
@@ -8268,7 +8269,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" ht="12.75">
       <c r="A297" s="1" t="s">
         <v>762</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" ht="12.75">
       <c r="A298" s="1" t="s">
         <v>762</v>
       </c>
@@ -8296,7 +8297,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" ht="12.75">
       <c r="A299" s="1" t="s">
         <v>762</v>
       </c>
@@ -8325,7 +8326,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" ht="12.75">
       <c r="A300" s="1" t="s">
         <v>762</v>
       </c>
@@ -8339,7 +8340,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" ht="12.75">
       <c r="A301" s="1" t="s">
         <v>762</v>
       </c>
@@ -8359,7 +8360,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" ht="12.75">
       <c r="A302" s="1" t="s">
         <v>762</v>
       </c>
@@ -8379,7 +8380,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" ht="12.75">
       <c r="A303" s="1" t="s">
         <v>762</v>
       </c>
@@ -8407,7 +8408,7 @@
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" ht="12.75">
       <c r="A304" s="1" t="s">
         <v>762</v>
       </c>
@@ -8444,7 +8445,7 @@
       <c r="L304" s="1"/>
       <c r="M304" s="1"/>
     </row>
-    <row r="305" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" ht="12.75">
       <c r="A305" s="1" t="s">
         <v>762</v>
       </c>
@@ -8474,7 +8475,7 @@
       </c>
       <c r="K305" s="1"/>
     </row>
-    <row r="306" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" ht="12.75">
       <c r="A306" s="1" t="s">
         <v>762</v>
       </c>
@@ -8501,7 +8502,7 @@
       </c>
       <c r="K306" s="1"/>
     </row>
-    <row r="307" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" ht="12.75">
       <c r="A307" s="1" t="s">
         <v>762</v>
       </c>
@@ -8524,7 +8525,7 @@
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
     </row>
-    <row r="308" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" ht="12.75">
       <c r="A308" s="1" t="s">
         <v>762</v>
       </c>
@@ -8550,7 +8551,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" ht="12.75">
       <c r="A309" s="1" t="s">
         <v>762</v>
       </c>
@@ -8579,7 +8580,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" ht="12.75">
       <c r="A310" s="1" t="s">
         <v>762</v>
       </c>
@@ -8600,7 +8601,7 @@
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" ht="12.75">
       <c r="A311" s="1" t="s">
         <v>957</v>
       </c>
@@ -8608,7 +8609,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" ht="12.75">
       <c r="A312" s="1" t="s">
         <v>957</v>
       </c>
@@ -8625,7 +8626,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" ht="12.75">
       <c r="A313" s="1" t="s">
         <v>957</v>
       </c>
@@ -8648,7 +8649,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" ht="12.75">
       <c r="A314" s="1" t="s">
         <v>957</v>
       </c>
@@ -8669,7 +8670,7 @@
       </c>
       <c r="G314" s="1"/>
     </row>
-    <row r="315" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" ht="12.75">
       <c r="A315" s="1" t="s">
         <v>974</v>
       </c>
@@ -8685,7 +8686,7 @@
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" ht="12.75">
       <c r="A316" s="1" t="s">
         <v>974</v>
       </c>
@@ -8697,7 +8698,7 @@
       </c>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" ht="12.75">
       <c r="A317" s="1" t="s">
         <v>974</v>
       </c>
@@ -8717,7 +8718,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" ht="12.75">
       <c r="A318" s="1" t="s">
         <v>974</v>
       </c>
@@ -8728,7 +8729,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" ht="12.75">
       <c r="A319" s="1" t="s">
         <v>985</v>
       </c>
@@ -8736,7 +8737,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" ht="12.75">
       <c r="A320" s="1" t="s">
         <v>985</v>
       </c>
@@ -8753,7 +8754,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="12.75">
       <c r="A321" s="1" t="s">
         <v>985</v>
       </c>
@@ -8770,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="12.75">
       <c r="A322" s="1" t="s">
         <v>985</v>
       </c>
@@ -8781,7 +8782,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="12.75">
       <c r="A323" s="1" t="s">
         <v>992</v>
       </c>
@@ -8792,7 +8793,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="12.75">
       <c r="A324" s="1" t="s">
         <v>992</v>
       </c>
@@ -8803,7 +8804,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" ht="12.75">
       <c r="A325" s="1" t="s">
         <v>992</v>
       </c>
@@ -8814,7 +8815,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="12.75">
       <c r="A326" s="1" t="s">
         <v>992</v>
       </c>
@@ -8825,7 +8826,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="12.75">
       <c r="A327" s="1" t="s">
         <v>1001</v>
       </c>
@@ -8836,7 +8837,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="12.75">
       <c r="A328" s="1" t="s">
         <v>1001</v>
       </c>
@@ -8850,7 +8851,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="12.75">
       <c r="A329" s="1" t="s">
         <v>1001</v>
       </c>
@@ -8873,7 +8874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="12.75">
       <c r="A330" s="1" t="s">
         <v>1001</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" ht="12.75">
       <c r="A331" s="1" t="s">
         <v>1001</v>
       </c>
@@ -8913,7 +8914,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" ht="12.75">
       <c r="A332" s="1" t="s">
         <v>1001</v>
       </c>
@@ -8921,7 +8922,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="12.75">
       <c r="A333" s="1" t="s">
         <v>1001</v>
       </c>
@@ -8932,7 +8933,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="12.75">
       <c r="A334" s="1" t="s">
         <v>1001</v>
       </c>
@@ -8955,7 +8956,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" ht="12.75">
       <c r="A335" s="1" t="s">
         <v>1001</v>
       </c>
@@ -8966,7 +8967,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="12.75">
       <c r="A336" s="1" t="s">
         <v>1001</v>
       </c>
@@ -8983,7 +8984,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" ht="12.75">
       <c r="A337" s="1" t="s">
         <v>1001</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="12.75">
       <c r="A338" s="1" t="s">
         <v>1036</v>
       </c>
@@ -9017,7 +9018,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="12.75">
       <c r="A339" s="1" t="s">
         <v>1036</v>
       </c>
@@ -9028,7 +9029,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="12.75">
       <c r="A340" s="1" t="s">
         <v>1036</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="12.75">
       <c r="A341" s="1" t="s">
         <v>1036</v>
       </c>
@@ -9053,7 +9054,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="12.75">
       <c r="A342" s="1" t="s">
         <v>1036</v>
       </c>
@@ -9070,7 +9071,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="12.75">
       <c r="A343" s="1" t="s">
         <v>1036</v>
       </c>
@@ -9090,7 +9091,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="12.75">
       <c r="A344" s="1" t="s">
         <v>1036</v>
       </c>
@@ -9110,7 +9111,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="12.75">
       <c r="A345" s="1" t="s">
         <v>1036</v>
       </c>
@@ -9124,7 +9125,7 @@
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
     </row>
-    <row r="346" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" ht="12.75">
       <c r="A346" s="1" t="s">
         <v>1059</v>
       </c>
@@ -9135,7 +9136,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" ht="12.75">
       <c r="A347" s="1" t="s">
         <v>1059</v>
       </c>
@@ -9155,7 +9156,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="12.75">
       <c r="A348" s="1" t="s">
         <v>1059</v>
       </c>
@@ -9166,7 +9167,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="12.75">
       <c r="A349" s="1" t="s">
         <v>1059</v>
       </c>
@@ -9177,7 +9178,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" ht="12.75">
       <c r="A350" s="1" t="s">
         <v>1059</v>
       </c>
@@ -9191,7 +9192,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" ht="12.75">
       <c r="A351" s="1" t="s">
         <v>1059</v>
       </c>
@@ -9205,7 +9206,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="12.75">
       <c r="A352" s="1" t="s">
         <v>1059</v>
       </c>
@@ -9225,7 +9226,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" ht="12.75">
       <c r="A353" s="1" t="s">
         <v>1059</v>
       </c>
@@ -9236,7 +9237,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" ht="12.75">
       <c r="A354" s="1" t="s">
         <v>1079</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" ht="12.75">
       <c r="A355" s="1" t="s">
         <v>1079</v>
       </c>
@@ -9261,7 +9262,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" ht="12.75">
       <c r="A356" s="1" t="s">
         <v>1084</v>
       </c>
@@ -9275,7 +9276,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" ht="12.75">
       <c r="A357" s="1" t="s">
         <v>1084</v>
       </c>
@@ -9292,7 +9293,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" ht="12.75">
       <c r="A358" s="1" t="s">
         <v>1084</v>
       </c>
@@ -9318,7 +9319,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" ht="12.75">
       <c r="A359" s="1" t="s">
         <v>1084</v>
       </c>
@@ -9350,7 +9351,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" ht="12.75">
       <c r="A360" s="1" t="s">
         <v>1084</v>
       </c>
@@ -9370,7 +9371,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" ht="12.75">
       <c r="A361" s="1" t="s">
         <v>1106</v>
       </c>
@@ -9384,7 +9385,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" ht="12.75">
       <c r="A362" s="1" t="s">
         <v>1106</v>
       </c>
@@ -9404,7 +9405,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" ht="12.75">
       <c r="A363" s="1" t="s">
         <v>1106</v>
       </c>
@@ -9415,7 +9416,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" ht="12.75">
       <c r="A364" s="1" t="s">
         <v>1106</v>
       </c>
@@ -9426,7 +9427,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" ht="12.75">
       <c r="A365" s="1" t="s">
         <v>1106</v>
       </c>
@@ -9437,7 +9438,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" ht="12.75">
       <c r="A366" s="1" t="s">
         <v>1106</v>
       </c>
@@ -9448,7 +9449,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" ht="12.75">
       <c r="A367" s="1" t="s">
         <v>1106</v>
       </c>
@@ -9477,7 +9478,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" ht="12.75">
       <c r="A368" s="1" t="s">
         <v>1106</v>
       </c>
@@ -9488,7 +9489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" ht="12.75">
       <c r="A369" s="1" t="s">
         <v>1129</v>
       </c>
@@ -9505,7 +9506,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" ht="12.75">
       <c r="A370" s="1" t="s">
         <v>1129</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" ht="12.75">
       <c r="A371" s="1" t="s">
         <v>1129</v>
       </c>
@@ -9536,7 +9537,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" ht="12.75">
       <c r="A372" s="1" t="s">
         <v>1138</v>
       </c>
@@ -9556,7 +9557,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="12.75">
       <c r="A373" s="1" t="s">
         <v>1138</v>
       </c>
@@ -9570,7 +9571,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" ht="12.75">
       <c r="A374" s="1" t="s">
         <v>1138</v>
       </c>
@@ -9593,7 +9594,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="12.75">
       <c r="A375" s="1" t="s">
         <v>1138</v>
       </c>
@@ -9610,7 +9611,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" ht="12.75">
       <c r="A376" s="1" t="s">
         <v>1138</v>
       </c>
@@ -9627,7 +9628,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" ht="12.75">
       <c r="A377" s="1" t="s">
         <v>1138</v>
       </c>
@@ -9638,7 +9639,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" ht="12.75">
       <c r="A378" s="1" t="s">
         <v>1138</v>
       </c>
@@ -9652,7 +9653,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" ht="12.75">
       <c r="A379" s="1" t="s">
         <v>1138</v>
       </c>
@@ -9675,7 +9676,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" ht="12.75">
       <c r="A380" s="1" t="s">
         <v>1138</v>
       </c>
@@ -9689,7 +9690,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" ht="12.75">
       <c r="A381" s="1" t="s">
         <v>1138</v>
       </c>
@@ -9706,7 +9707,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" ht="12.75">
       <c r="A382" s="1" t="s">
         <v>1138</v>
       </c>
@@ -9718,7 +9719,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:O382"/>
+  <autoFilter ref="B1:O382" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
